--- a/excel_test.xlsx
+++ b/excel_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 Backup sistema\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3 Projetos Pessoal\6 TK Excel e CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E77459-4189-48F3-BD6C-0CCE75DC6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887DB8D3-8E80-419F-894F-6EE9DECB4572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2085" windowWidth="21480" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2145" windowWidth="21480" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>nome</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>CREDIT_CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLETO      </t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,7 +573,7 @@
         <v>3000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>44564</v>
